--- a/02 Documents/00 计划/点餐项目任务计划.xlsx
+++ b/02 Documents/00 计划/点餐项目任务计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工时分析" sheetId="1" r:id="rId1"/>
@@ -70,51 +70,6 @@
     <t>基础信息（第一次初始化下载所有数据，之后根据时间戳进行增量下载）</t>
   </si>
   <si>
-    <t>    宴会场地信息</t>
-  </si>
-  <si>
-    <t>    宴会场地预约信息</t>
-  </si>
-  <si>
-    <t>    包厢信息</t>
-  </si>
-  <si>
-    <r>
-      <t>   </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>包厢信息预约信息</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>   </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>大厅餐桌</t>
-    </r>
-  </si>
-  <si>
-    <t>   餐桌预约信息</t>
-  </si>
-  <si>
-    <t>    菜系</t>
-  </si>
-  <si>
     <r>
       <t>   </t>
     </r>
@@ -483,12 +438,131 @@
     <t>人/小时 总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宴会场地信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宴会场地预约信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包厢信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包厢信息预约信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大厅餐桌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>餐桌预约信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菜系</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +623,14 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -596,6 +678,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -612,7 +762,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -893,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -909,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -930,7 +1080,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -938,7 +1088,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>16</v>
@@ -946,7 +1096,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>42</v>
@@ -954,7 +1104,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B7">
         <v>98</v>
@@ -962,7 +1112,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -998,7 +1148,7 @@
         <v>350</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1012,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1036,57 +1186,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1094,12 +1244,12 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1107,12 +1257,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1120,12 +1270,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1133,12 +1283,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1146,12 +1296,12 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1175,37 +1325,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1216,37 +1366,37 @@
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1254,12 +1404,12 @@
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1267,17 +1417,17 @@
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1285,27 +1435,27 @@
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1313,27 +1463,27 @@
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1341,32 +1491,32 @@
     </row>
     <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
@@ -1374,22 +1524,22 @@
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1397,22 +1547,22 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
@@ -1423,22 +1573,22 @@
     </row>
     <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1446,7 +1596,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
@@ -1454,7 +1604,7 @@
     </row>
     <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1479,182 +1629,182 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
